--- a/FunctionList.xlsx
+++ b/FunctionList.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Level 6\5COSC009C.2 Software Development Group Project\Electrimate\GIT Projects\crypto-electrimate-app\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5295" windowHeight="1035"/>
+    <workbookView windowWidth="22943" windowHeight="9912"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>File</t>
   </si>
@@ -51,18 +41,192 @@
   </si>
   <si>
     <t>logOut</t>
+  </si>
+  <si>
+    <t>create-user.ts</t>
+  </si>
+  <si>
+    <t>ngOnInit</t>
+  </si>
+  <si>
+    <t>saveUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> presentToast</t>
+  </si>
+  <si>
+    <t>eula.ts</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>presentLoading</t>
+  </si>
+  <si>
+    <t>showEula</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>eula-agreement.ts</t>
+  </si>
+  <si>
+    <t>dismiss</t>
+  </si>
+  <si>
+    <t>home.ts</t>
+  </si>
+  <si>
+    <t>scanSensor</t>
+  </si>
+  <si>
+    <t>showHistory</t>
+  </si>
+  <si>
+    <t>viewBillDate</t>
+  </si>
+  <si>
+    <t>loadData</t>
+  </si>
+  <si>
+    <t>getDate</t>
+  </si>
+  <si>
+    <t>precisionRound</t>
+  </si>
+  <si>
+    <t>drawDoughnutChart</t>
+  </si>
+  <si>
+    <t>isHouseOwner</t>
+  </si>
+  <si>
+    <t>loadHouseOwnerView</t>
+  </si>
+  <si>
+    <t>loadTenantView</t>
+  </si>
+  <si>
+    <t>last-bill.ts</t>
+  </si>
+  <si>
+    <t>ionViewDidLoad</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>module-info.ts</t>
+  </si>
+  <si>
+    <t>viewSensors</t>
+  </si>
+  <si>
+    <t>modules.ts</t>
+  </si>
+  <si>
+    <t>viewModule</t>
+  </si>
+  <si>
+    <t>password-change.ts</t>
+  </si>
+  <si>
+    <t>changePasswordClicked</t>
+  </si>
+  <si>
+    <t>password-reset.ts</t>
+  </si>
+  <si>
+    <t>resetPwd</t>
+  </si>
+  <si>
+    <t>scan-qr.ts</t>
+  </si>
+  <si>
+    <t>scanCode</t>
+  </si>
+  <si>
+    <t>showConfirm</t>
+  </si>
+  <si>
+    <t>showError</t>
+  </si>
+  <si>
+    <t>sensors.ts</t>
+  </si>
+  <si>
+    <t>addSensor</t>
+  </si>
+  <si>
+    <t>settings.ts</t>
+  </si>
+  <si>
+    <t>editProfileClicked</t>
+  </si>
+  <si>
+    <t>user-details.ts</t>
+  </si>
+  <si>
+    <t>callUser</t>
+  </si>
+  <si>
+    <t>smsUser</t>
+  </si>
+  <si>
+    <t>user-profile.ts</t>
+  </si>
+  <si>
+    <t>presentActionSheet</t>
+  </si>
+  <si>
+    <t>takePicture</t>
+  </si>
+  <si>
+    <t>updateDetails</t>
+  </si>
+  <si>
+    <t>users.ts</t>
+  </si>
+  <si>
+    <t>viewUserDetails</t>
+  </si>
+  <si>
+    <t>welcome.ts</t>
+  </si>
+  <si>
+    <t>doLogin</t>
+  </si>
+  <si>
+    <t>resetPasswordClicked</t>
+  </si>
+  <si>
+    <t>ionViewWillLoad</t>
+  </si>
+  <si>
+    <t>setFirstLogin</t>
+  </si>
+  <si>
+    <t>showEditProfile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,19 +234,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -90,25 +591,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -157,7 +944,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,7 +979,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,31 +1153,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="36.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="18.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -409,28 +1191,377 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>